--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -115,10 +115,6 @@
     <t>Required coins</t>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>price</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -163,10 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#init{}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#buildings{{}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,10 +171,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#friends{}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$value[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -315,18 +303,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#shop{{}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>旬是什么</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#inventory[{}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>b"l"ue"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -340,6 +320,26 @@
   </si>
   <si>
     <t>dru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#_init{}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#_inventory[{}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#_friends{}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#_shop{{}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$key</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -495,6 +495,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,9 +511,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1238,28 +1238,28 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1322,37 +1322,37 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
@@ -1371,10 +1371,10 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="3">
         <v>200</v>
@@ -1389,7 +1389,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -1407,7 +1407,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
@@ -1425,7 +1425,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
@@ -1450,41 +1450,41 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1577,52 +1577,52 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
+      <c r="B29" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F31" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -1631,15 +1631,15 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <v>200</v>
@@ -1648,15 +1648,15 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <v>300</v>
@@ -1665,15 +1665,15 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <v>100</v>
@@ -1682,76 +1682,76 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
+      <c r="B37" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="17" t="b">
+        <v>23</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="3">
         <v>150</v>
       </c>
@@ -1759,11 +1759,11 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="3">
         <v>100</v>
       </c>
@@ -1771,11 +1771,11 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
       <c r="F43" s="1"/>
     </row>
   </sheetData>
@@ -1803,9 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1816,42 +1814,42 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7"/>
     </row>

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -323,10 +323,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#_init{}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#_inventory[{}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -340,6 +336,10 @@
   </si>
   <si>
     <t>$key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#__init{}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>20</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>33</v>
@@ -1814,7 +1814,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -159,10 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#buildings{{}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#reqcoins{[]}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -340,6 +336,10 @@
   </si>
   <si>
     <t>#__init{}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#buildings{{}}#s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1222,13 +1222,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.25" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
@@ -1249,17 +1249,17 @@
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1322,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1340,19 +1340,19 @@
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
@@ -1374,7 +1374,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3">
         <v>200</v>
@@ -1425,7 +1425,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
@@ -1463,19 +1463,19 @@
         <v>28</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>28</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1587,25 +1587,25 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>20</v>
@@ -1617,7 +1617,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1634,7 +1634,7 @@
         <v>24</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1651,7 +1651,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1668,7 +1668,7 @@
         <v>24</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1682,16 +1682,16 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -1701,33 +1701,33 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1748,7 +1748,7 @@
         <v>26</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -1771,7 +1771,7 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -1814,42 +1814,42 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7"/>
     </row>

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -335,11 +335,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#__init{}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#buildings{{}}#s</t>
+    <t>#buildings{{}}#c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#__init</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>Initial Data</t>
   </si>
@@ -319,27 +319,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#_inventory[{}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#_friends{}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#_shop{{}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#buildings{{}}#c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#__init</t>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#xx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1222,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1259,7 +1251,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1352,7 +1344,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
@@ -1602,10 +1594,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>20</v>
@@ -1716,7 +1708,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>32</v>
@@ -1814,7 +1806,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>Initial Data</t>
   </si>
@@ -332,6 +332,10 @@
   </si>
   <si>
     <t>#xx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#kv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -339,6 +343,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,6 +500,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,6 +514,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,16 +668,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -673,8 +686,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6934200" y="3771900"/>
-          <a:ext cx="2457450" cy="895350"/>
+          <a:off x="11458575" y="3067050"/>
+          <a:ext cx="2457450" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1212,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F43"/>
+  <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1230,13 +1243,13 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
@@ -1251,7 +1264,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1321,13 +1334,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
@@ -1363,58 +1376,58 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>67</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="D16" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E16" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
         <v>42</v>
@@ -1432,7 +1445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1440,17 +1453,17 @@
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +1478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1481,7 +1494,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>100</v>
@@ -1496,8 +1509,16 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22">
+        <f>RANK(F22,F22:F27)</f>
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <f>RANK(F22,F$22:F$27)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>500</v>
@@ -1512,8 +1533,16 @@
       <c r="F23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="1">
+        <f t="shared" ref="G23:G27" si="0">RANK(F23,F23:F28)</f>
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ref="H23:H27" si="1">RANK(F23,F$22:F$27)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>1000</v>
@@ -1528,20 +1557,49 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24">
+        <v>1.2353400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>1500</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="19">
+        <v>100.1</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <f>ROUND(J24,2)</f>
+        <v>1.24</v>
+      </c>
+      <c r="K25">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>2000</v>
@@ -1552,11 +1610,24 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <f>ROUND(J25,2)</f>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>2500</v>
+        <f>SUM(B22:B26)</f>
+        <v>5100</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1564,20 +1635,28 @@
       <c r="F27" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
         <v>57</v>
       </c>
@@ -1592,7 +1671,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -1612,7 +1691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
         <v>23</v>
       </c>
@@ -1682,13 +1761,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
@@ -1713,11 +1792,11 @@
       <c r="B39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="4" t="s">
         <v>70</v>
       </c>
@@ -1727,9 +1806,9 @@
       <c r="B40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="12" t="b">
         <v>1</v>
       </c>
@@ -1739,11 +1818,11 @@
       <c r="B41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="3">
         <v>150</v>
       </c>
@@ -1753,9 +1832,9 @@
       <c r="B42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="3">
         <v>100</v>
       </c>
@@ -1765,12 +1844,15 @@
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="B14:F17">
+    <sortCondition ref="E14:E17"/>
+  </sortState>
   <mergeCells count="10">
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C40:E40"/>

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>Initial Data</t>
   </si>
@@ -61,9 +61,6 @@
     <t>$key</t>
   </si>
   <si>
-    <t>$value</t>
-  </si>
-  <si>
     <t>coins</t>
   </si>
   <si>
@@ -215,26 +212,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial coins</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial exp.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial gold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial character</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Color</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -336,6 +313,14 @@
   </si>
   <si>
     <t>#kv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1228,7 +1213,7 @@
   <dimension ref="A2:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1254,23 +1239,21 @@
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1279,63 +1262,55 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="7">
         <v>1000</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1345,41 +1320,41 @@
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3">
         <v>200</v>
@@ -1388,16 +1363,16 @@
         <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
@@ -1406,16 +1381,16 @@
         <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3">
         <v>200</v>
@@ -1424,16 +1399,16 @@
         <v>200</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3">
         <v>200</v>
@@ -1442,7 +1417,7 @@
         <v>200</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1456,7 +1431,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1465,31 +1440,31 @@
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1649,7 +1624,7 @@
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -1658,42 +1633,42 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F31" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -1702,15 +1677,15 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>200</v>
@@ -1719,15 +1694,15 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>300</v>
@@ -1736,15 +1711,15 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>100</v>
@@ -1753,16 +1728,16 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -1772,39 +1747,39 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -1816,10 +1791,10 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -1830,7 +1805,7 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -1842,7 +1817,7 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -1888,42 +1863,42 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7"/>
     </row>

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="17115" windowHeight="12045"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="17115" windowHeight="12045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#Sheet1" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -485,6 +485,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,9 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,73 +856,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8896350" y="7543799"/>
-          <a:ext cx="1857375" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>If simple object which contains array value, you can use '$value[]' for its field name.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1212,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1228,13 +1161,13 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
@@ -1309,13 +1242,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
@@ -1430,13 +1363,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
@@ -1540,7 +1473,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I24" s="19"/>
+      <c r="I24" s="14"/>
       <c r="J24">
         <v>1.2353400000000001</v>
       </c>
@@ -1550,7 +1483,7 @@
       <c r="B25" s="1">
         <v>1500</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="14">
         <v>100.1</v>
       </c>
       <c r="D25" s="1"/>
@@ -1623,13 +1556,13 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
@@ -1736,13 +1669,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
@@ -1767,11 +1700,11 @@
       <c r="B39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="4" t="s">
         <v>64</v>
       </c>
@@ -1781,9 +1714,9 @@
       <c r="B40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="12" t="b">
         <v>1</v>
       </c>
@@ -1793,11 +1726,11 @@
       <c r="B41" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
       <c r="F41" s="3">
         <v>150</v>
       </c>
@@ -1807,9 +1740,9 @@
       <c r="B42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="3">
         <v>100</v>
       </c>
@@ -1819,9 +1752,9 @@
       <c r="B43" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
       <c r="F43" s="1"/>
     </row>
   </sheetData>
@@ -1852,7 +1785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1905,7 +1840,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="17115" windowHeight="12045" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="17115" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="#Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="#Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -292,10 +292,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dru</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#_friends{}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -312,15 +308,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#kv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>k</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>v</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dru[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dru[2]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,6 +487,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1145,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1161,13 +1167,13 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
@@ -1179,14 +1185,12 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1242,13 +1246,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
@@ -1265,7 +1269,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
@@ -1363,13 +1367,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
@@ -1556,13 +1560,13 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
@@ -1581,10 +1585,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>19</v>
@@ -1616,7 +1620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
         <v>24</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>25</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
         <v>26</v>
       </c>
@@ -1667,17 +1671,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
         <v>51</v>
@@ -1693,68 +1697,80 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="12" t="b">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41" s="15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G42" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="1"/>
     </row>
   </sheetData>
@@ -1785,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1798,7 +1814,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Initial Data</t>
   </si>
@@ -321,6 +321,10 @@
   </si>
   <si>
     <t>dru[2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1151,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1699,7 +1703,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>31</v>
@@ -1757,10 +1761,10 @@
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G42" s="15">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>Initial Data</t>
   </si>
@@ -325,6 +325,10 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#kv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1155,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,7 +1193,9 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>Initial Data</t>
   </si>
@@ -308,14 +308,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>dru[1]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -328,7 +320,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#kv</t>
+    <t>$key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$value[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$value[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$value[2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1160,7 +1172,7 @@
   <dimension ref="A2:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1194,16 +1206,20 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1214,8 +1230,12 @@
       <c r="C5" s="7">
         <v>1000</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1226,8 +1246,12 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1238,8 +1262,12 @@
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1250,8 +1278,12 @@
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1709,7 +1741,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>31</v>
@@ -1720,10 +1752,10 @@
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="17115" windowHeight="12045"/>
   </bookViews>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t>Initial Data</t>
   </si>
@@ -341,6 +344,10 @@
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,6 +519,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -745,16 +755,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -763,8 +773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6943725" y="5867400"/>
-          <a:ext cx="2457450" cy="895350"/>
+          <a:off x="13811250" y="5591175"/>
+          <a:ext cx="2457450" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -819,16 +829,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -837,8 +847,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6943725" y="7543800"/>
-          <a:ext cx="2447925" cy="809625"/>
+          <a:off x="11830050" y="6296025"/>
+          <a:ext cx="2447925" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -880,6 +890,22 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="toArray"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1169,10 +1195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1187,13 +1214,13 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
@@ -1288,13 +1315,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
@@ -1409,13 +1436,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
@@ -1446,7 +1473,9 @@
         <v>29</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -1460,15 +1489,14 @@
         <v>100</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="str">
+        <f>[1]!toArray(G22:H22)</f>
+        <v>[6,6]</v>
       </c>
       <c r="G22">
-        <f>RANK(F22,F22:F27)</f>
         <v>6</v>
       </c>
       <c r="H22">
-        <f>RANK(F22,F$22:F$27)</f>
         <v>6</v>
       </c>
     </row>
@@ -1484,15 +1512,14 @@
         <v>500</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="3">
-        <v>1</v>
+      <c r="F23" s="17" t="str">
+        <f>[1]!toArray(G23:H23)</f>
+        <v>[5,5]</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G27" si="0">RANK(F23,F23:F28)</f>
         <v>5</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" ref="H23:H27" si="1">RANK(F23,F$22:F$27)</f>
         <v>5</v>
       </c>
     </row>
@@ -1508,15 +1535,14 @@
         <v>1000</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="3">
-        <v>2</v>
+      <c r="F24" s="17" t="str">
+        <f>[1]!toArray(G24:H24)</f>
+        <v>[4,4]</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I24" s="14"/>
@@ -1534,15 +1560,14 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="3">
+      <c r="F25" s="17" t="str">
+        <f>[1]!toArray(G25:H25)</f>
+        <v>[3,3]</v>
+      </c>
+      <c r="G25" s="1">
         <v>3</v>
       </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J25">
@@ -1561,15 +1586,14 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="3">
-        <v>4</v>
+      <c r="F26" s="17" t="str">
+        <f>[1]!toArray(G26:H26)</f>
+        <v>[2,2]</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J26" s="1">
@@ -1586,15 +1610,14 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="3">
-        <v>5</v>
+      <c r="F27" s="17" t="str">
+        <f>[1]!toArray(G27:H27)</f>
+        <v>[1,1]</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1602,13 +1625,13 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
@@ -1715,13 +1738,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
@@ -1746,11 +1769,11 @@
       <c r="B39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="4" t="s">
         <v>68</v>
       </c>
@@ -1763,9 +1786,9 @@
       <c r="B40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
       <c r="F40" s="12">
         <v>1</v>
       </c>
@@ -1778,11 +1801,11 @@
       <c r="B41" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="3">
         <v>150</v>
       </c>
@@ -1795,9 +1818,9 @@
       <c r="B42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
       <c r="F42" s="3">
         <v>15</v>
       </c>
@@ -1810,9 +1833,9 @@
       <c r="B43" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="1"/>
     </row>
   </sheetData>
@@ -1841,6 +1864,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1903,6 +1927,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -897,12 +897,14 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="SAddin"/>
     </sheetNames>
     <definedNames>
       <definedName name="toArray"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1198,8 +1200,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1480,7 +1482,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <v>100</v>
@@ -1503,7 +1505,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
         <v>500</v>
@@ -1526,7 +1528,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <v>1000</v>
@@ -1553,7 +1555,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="C25" s="14">
         <v>100.1</v>
@@ -1581,7 +1583,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1605,7 +1607,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <f>SUM(B22:B26)</f>
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>

--- a/excel_root/sample.xlsx
+++ b/excel_root/sample.xlsx
@@ -327,10 +327,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$value[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$value[1]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -348,6 +344,10 @@
   </si>
   <si>
     <t>level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1201,7 @@
   <dimension ref="A2:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C32" sqref="C32:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1241,13 +1241,13 @@
         <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1260,10 +1260,10 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1276,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1308,10 +1308,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1675,7 +1675,7 @@
         <v>22</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1691,8 +1691,8 @@
       <c r="B33" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C33">
-        <v>200</v>
+      <c r="C33" s="1">
+        <v>0</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1708,8 +1708,8 @@
       <c r="B34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C34">
-        <v>300</v>
+      <c r="C34" s="1">
+        <v>0</v>
       </c>
       <c r="D34">
         <v>2</v>
